--- a/00역사테이블명세 양식.xlsx
+++ b/00역사테이블명세 양식.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="게시판 테이블 명세" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="118">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -346,7 +346,54 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>아이디</t>
+    <t>이메일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 및 회원가입 테이블 명세서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 및 회원가입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_login,tbl_join</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 테이블 명세서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(40)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_board</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_USERID</t>
+  </si>
+  <si>
+    <t>VARCHAR2(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -354,63 +401,100 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>이메일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>l_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>l_pw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>l_email</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일렬번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 및 회원가입 테이블 명세서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 및 회원가입</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_login,tbl_join</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>l_seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VACHAR2(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 테이블 명세서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(40)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_board</t>
+    <t>문자열(255)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_PASSWORD</t>
+  </si>
+  <si>
+    <t>nVARCHAR2(255)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_NAME</t>
+  </si>
+  <si>
+    <t>nVARCHAR2(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_TEL</t>
+  </si>
+  <si>
+    <t>M_EMAIL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불린, 문자(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enabled</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT '0'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정퇴출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccountNonExpired</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정잠금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불린, 문자(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccountNonLocked</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인가취소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CredentialsNonExpired</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -475,7 +559,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -676,26 +760,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -766,9 +837,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1142,7 +1210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:L12"/>
     </sheetView>
   </sheetViews>
@@ -1799,59 +1867,59 @@
       <c r="C1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="31" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="31"/>
+      <c r="I1" s="30"/>
       <c r="J1" s="13">
         <v>44123</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="33"/>
+      <c r="L1" s="32"/>
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="32"/>
+      <c r="I2" s="31"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="30"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="25"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
@@ -2871,23 +2939,23 @@
       <c r="C1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="31" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="31"/>
+      <c r="I1" s="30"/>
       <c r="J1" s="13">
         <v>44123</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="33"/>
+      <c r="L1" s="32"/>
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="16" t="s">
@@ -2896,34 +2964,34 @@
       <c r="C2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="32" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="32"/>
+      <c r="I2" s="31"/>
       <c r="J2" s="14"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="30"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="25"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
@@ -2999,7 +3067,7 @@
         <v>60</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>42</v>
@@ -3973,23 +4041,23 @@
       <c r="C1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="31" t="s">
+      <c r="D1" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="31"/>
+      <c r="I1" s="30"/>
       <c r="J1" s="13">
         <v>44123</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="33"/>
+      <c r="L1" s="32"/>
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="16" t="s">
@@ -3998,34 +4066,34 @@
       <c r="C2" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="32" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="32"/>
+      <c r="I2" s="31"/>
       <c r="J2" s="14"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="30"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="25"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
@@ -4352,8 +4420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5009,59 +5077,59 @@
       <c r="C1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="31" t="s">
+      <c r="D1" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="31"/>
+      <c r="I1" s="30"/>
       <c r="J1" s="13">
         <v>44123</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="33"/>
+      <c r="L1" s="32"/>
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="32"/>
+      <c r="I2" s="31"/>
       <c r="J2" s="14"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="30"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26"/>
+      <c r="C3" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="25"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
@@ -5098,25 +5166,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -5127,22 +5195,22 @@
       <c r="B6" s="10">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>79</v>
+      <c r="C6" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>82</v>
+        <v>93</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>94</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="14"/>
+        <v>95</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="17"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
@@ -5153,20 +5221,18 @@
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>42</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
@@ -5178,16 +5244,16 @@
         <v>4</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>87</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -5200,10 +5266,18 @@
       <c r="B9" s="10">
         <v>5</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="C9" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>104</v>
+      </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -5215,11 +5289,21 @@
       <c r="B10" s="10">
         <v>6</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="C10" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>109</v>
+      </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
@@ -5230,10 +5314,18 @@
       <c r="B11" s="10">
         <v>7</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="C11" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>112</v>
+      </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -5245,10 +5337,18 @@
       <c r="B12" s="10">
         <v>8</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="C12" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>108</v>
+      </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -5260,10 +5360,18 @@
       <c r="B13" s="10">
         <v>9</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="C13" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>108</v>
+      </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -6056,23 +6164,23 @@
       <c r="C1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="31" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="31"/>
+      <c r="I1" s="30"/>
       <c r="J1" s="13">
         <v>44123</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="33"/>
+      <c r="L1" s="32"/>
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="16" t="s">
@@ -6081,34 +6189,34 @@
       <c r="C2" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="32" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="32"/>
+      <c r="I2" s="31"/>
       <c r="J2" s="14"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="30"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="25"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
